--- a/input/calorimetry/test_5.xlsx
+++ b/input/calorimetry/test_5.xlsx
@@ -120,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -406,7 +407,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,12 +419,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -433,10 +434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O37" sqref="N37:O37"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +445,7 @@
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -452,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -460,61 +461,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>9.9999999999999998E-17</v>
+      </c>
+      <c r="B3">
         <v>1E-3</v>
       </c>
-      <c r="B3">
-        <v>9.9999999999999998E-17</v>
-      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>1.6638935108153081E-4</v>
+      </c>
+      <c r="B4" s="1">
         <v>9.9833610648918472E-4</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.6638935108153081E-4</v>
-      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>3.3222591362126253E-4</v>
+      </c>
+      <c r="B5" s="1">
         <v>9.9667774086378727E-4</v>
       </c>
-      <c r="B5" s="1">
-        <v>3.3222591362126253E-4</v>
-      </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>4.9751243781094524E-4</v>
+      </c>
+      <c r="B6" s="1">
         <v>9.9502487562189048E-4</v>
       </c>
-      <c r="B6" s="1">
-        <v>4.9751243781094524E-4</v>
-      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>6.6225165562913918E-4</v>
+      </c>
+      <c r="B7" s="1">
         <v>9.9337748344370861E-4</v>
       </c>
-      <c r="B7" s="1">
-        <v>6.6225165562913918E-4</v>
-      </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>8.2644628099173563E-4</v>
+      </c>
+      <c r="B8" s="1">
         <v>9.9173553719008266E-4</v>
       </c>
-      <c r="B8" s="1">
-        <v>8.2644628099173563E-4</v>
-      </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9.9009900990099011E-4</v>
       </c>
@@ -523,120 +525,120 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>1.1532125205930806E-3</v>
+      </c>
+      <c r="B10" s="1">
         <v>9.8846787479406903E-4</v>
       </c>
-      <c r="B10" s="1">
-        <v>1.1532125205930806E-3</v>
-      </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>1.3157894736842109E-3</v>
+      </c>
+      <c r="B11" s="1">
         <v>9.8684210526315793E-4</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.3157894736842109E-3</v>
-      </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>1.477832512315271E-3</v>
+      </c>
+      <c r="B12" s="1">
         <v>9.8522167487684722E-4</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.477832512315271E-3</v>
-      </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>1.639344262295082E-3</v>
+      </c>
+      <c r="B13" s="1">
         <v>9.8360655737704918E-4</v>
       </c>
-      <c r="B13" s="1">
-        <v>1.639344262295082E-3</v>
-      </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>1.8003273322422261E-3</v>
+      </c>
+      <c r="B14" s="1">
         <v>9.8199672667757766E-4</v>
       </c>
-      <c r="B14" s="1">
-        <v>1.8003273322422261E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>1.9607843137254902E-3</v>
+      </c>
+      <c r="B15">
         <v>9.8039215686274508E-4</v>
       </c>
-      <c r="B15">
-        <v>1.9607843137254902E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>2.1207177814029365E-3</v>
+      </c>
+      <c r="B16">
         <v>9.7879282218597059E-4</v>
-      </c>
-      <c r="B16">
-        <v>2.1207177814029365E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>2.280130293159609E-3</v>
+      </c>
+      <c r="B17">
         <v>9.7719869706840395E-4</v>
-      </c>
-      <c r="B17">
-        <v>2.280130293159609E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>2.4390243902439029E-3</v>
+      </c>
+      <c r="B18">
         <v>9.7560975609756097E-4</v>
-      </c>
-      <c r="B18">
-        <v>2.4390243902439029E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>2.5974025974025978E-3</v>
+      </c>
+      <c r="B19">
         <v>9.7402597402597392E-4</v>
-      </c>
-      <c r="B19">
-        <v>2.5974025974025978E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>2.7552674230145869E-3</v>
+      </c>
+      <c r="B20">
         <v>9.72447325769854E-4</v>
-      </c>
-      <c r="B20">
-        <v>2.7552674230145869E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>2.9126213592233015E-3</v>
+      </c>
+      <c r="B21">
         <v>9.7087378640776695E-4</v>
-      </c>
-      <c r="B21">
-        <v>2.9126213592233015E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>3.0694668820678513E-3</v>
+      </c>
+      <c r="B22">
         <v>9.6930533117932144E-4</v>
-      </c>
-      <c r="B22">
-        <v>3.0694668820678513E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>3.2258064516129032E-3</v>
+      </c>
+      <c r="B23">
         <v>9.6774193548387097E-4</v>
-      </c>
-      <c r="B23">
-        <v>3.2258064516129032E-3</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -1083,7 +1085,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/calorimetry/test_5.xlsx
+++ b/input/calorimetry/test_5.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>lg_k</t>
   </si>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,6 +1098,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/calorimetry/test_5.xlsx
+++ b/input/calorimetry/test_5.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>lg_k</t>
   </si>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,14 +1098,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/calorimetry/test_5.xlsx
+++ b/input/calorimetry/test_5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="input_k_constants_log10" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="targets" sheetId="6" r:id="rId5"/>
     <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId6"/>
     <sheet name="enthalpies" sheetId="7" r:id="rId7"/>
+    <sheet name="setup" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>lg_k</t>
   </si>
@@ -81,6 +82,15 @@
   </si>
   <si>
     <t>H2L</t>
+  </si>
+  <si>
+    <t>Calorimeter</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>Initial volume</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M26:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1101,4 +1111,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/calorimetry/test_5.xlsx
+++ b/input/calorimetry/test_5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="input_k_constants_log10" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="enthalpies" sheetId="7" r:id="rId7"/>
     <sheet name="setup" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,64 +821,64 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.239E-2</v>
+        <v>2.2414656273280341E-2</v>
       </c>
       <c r="C3">
-        <v>2.1590000000000002E-2</v>
+        <v>2.1607921114904838E-2</v>
       </c>
       <c r="D3">
-        <v>2.0420000000000001E-2</v>
+        <v>2.043886294103122E-2</v>
       </c>
       <c r="E3">
-        <v>1.8780000000000002E-2</v>
+        <v>1.878770260144811E-2</v>
       </c>
       <c r="F3">
-        <v>1.661E-2</v>
+        <v>1.6619828615365491E-2</v>
       </c>
       <c r="G3">
-        <v>1.4120000000000001E-2</v>
+        <v>1.4117609576194113E-2</v>
       </c>
       <c r="H3">
-        <v>1.167E-2</v>
+        <v>1.1667268720085147E-2</v>
       </c>
       <c r="I3">
-        <v>9.6100000000000005E-3</v>
+        <v>9.6095223315943324E-3</v>
       </c>
       <c r="J3">
-        <v>8.0499999999999999E-3</v>
+        <v>8.0515033120730772E-3</v>
       </c>
       <c r="K3">
-        <v>6.9300000000000004E-3</v>
+        <v>6.9244672048729815E-3</v>
       </c>
       <c r="L3">
-        <v>6.11E-3</v>
+        <v>6.1116789976356639E-3</v>
       </c>
       <c r="M3">
-        <v>5.5100000000000001E-3</v>
+        <v>5.513444381037679E-3</v>
       </c>
       <c r="N3">
-        <v>5.0600000000000003E-3</v>
+        <v>5.0596010678025157E-3</v>
       </c>
       <c r="O3">
-        <v>4.7000000000000002E-3</v>
+        <v>4.7039372883214917E-3</v>
       </c>
       <c r="P3">
-        <v>4.4200000000000003E-3</v>
+        <v>4.4164727744528945E-3</v>
       </c>
       <c r="Q3">
-        <v>4.1799999999999997E-3</v>
+        <v>4.1775888830205251E-3</v>
       </c>
       <c r="R3">
-        <v>3.9699999999999996E-3</v>
+        <v>3.9742994360578831E-3</v>
       </c>
       <c r="S3">
-        <v>3.8E-3</v>
+        <v>3.7977179283120556E-3</v>
       </c>
       <c r="T3">
-        <v>3.64E-3</v>
+        <v>3.6417052714977274E-3</v>
       </c>
       <c r="U3">
-        <v>3.5000000000000001E-3</v>
+        <v>3.5018980113836343E-3</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M26:M27"/>
     </sheetView>
   </sheetViews>
@@ -1094,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
